--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1763091.342460959</v>
+        <v>1838621.012125765</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10508212.9556351</v>
+        <v>10508212.95563509</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>153.373494026952</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>308.9438883433144</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>94.32873841396652</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>206.3517689015295</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>182.0600429546849</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>353.9487446662073</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -944,7 +946,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>122.399136542835</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>54.46079155833878</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>110.7769989391914</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,13 +1189,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>239.554069004641</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>59.58420545602234</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>121.43444236732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274077</v>
@@ -1537,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>41.92656778835364</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>155.8385935972304</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1765,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>67.54481623479278</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>161.1706059301398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>118.4898845065072</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.64843562452423</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>114.9309043193605</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>211.5619001782852</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>16.56305557306962</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>58.40168825977475</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>102.4034614784704</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>50.75136046586825</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>61.47226067794325</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>7.678017864944566</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.731669438490537</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3439,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>195.2576055935789</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>183.1796758467</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>174.7430637258767</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3721,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>152.6276470398217</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,7 +3799,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>217.7518546984673</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>411.9645167896915</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>27.71082088042269</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>169.827716759979</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1549.547090562791</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C2" t="n">
-        <v>1549.547090562791</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.281391956041</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
         <v>1036.358670716696</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1936.146930626913</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1936.146930626913</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y2" t="n">
-        <v>1936.146930626913</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4422,16 +4424,16 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>603.4305111065548</v>
       </c>
       <c r="V4" t="n">
-        <v>444.0275768541693</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="W4" t="n">
-        <v>444.0275768541693</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1547.452423968253</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C5" t="n">
-        <v>1547.452423968253</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1721.077375192013</v>
       </c>
       <c r="E5" t="n">
         <v>1363.553390680693</v>
@@ -4568,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1937.591755944065</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1547.452423968253</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4756,19 +4758,19 @@
         <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541693</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541693</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X7" t="n">
-        <v>444.0275768541693</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>223.2349977106392</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1353.054351842971</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C8" t="n">
-        <v>1353.054351842971</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D8" t="n">
-        <v>994.7886532362209</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>994.7886532362209</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>583.8027484466134</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>165.8389403448002</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>165.8389403448002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
         <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177207</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1739.654191907093</v>
+        <v>1596.687254739904</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.654191907093</v>
+        <v>1596.687254739904</v>
       </c>
       <c r="Y8" t="n">
-        <v>1739.654191907093</v>
+        <v>1596.687254739904</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>394.4025473335336</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="C10" t="n">
-        <v>394.4025473335336</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>383.841510736975</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4996,16 +4998,16 @@
         <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="Y10" t="n">
-        <v>576.0510121637733</v>
+        <v>444.0275768541693</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5023,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5124,16 +5126,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.072954880832</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5233,16 +5235,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1341.503549752619</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>1341.503549752619</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>1113.513998854602</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y13" t="n">
-        <v>892.7214197110717</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5269,19 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,10 +5296,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5373,10 +5375,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.2699138005285</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1430.689183452051</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1141.560544665609</v>
       </c>
       <c r="V16" t="n">
-        <v>1336.117678709276</v>
+        <v>886.8760564597223</v>
       </c>
       <c r="W16" t="n">
-        <v>1046.700508672316</v>
+        <v>597.4588864227617</v>
       </c>
       <c r="X16" t="n">
-        <v>818.7109577742983</v>
+        <v>597.4588864227617</v>
       </c>
       <c r="Y16" t="n">
-        <v>597.9183786307682</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5507,13 +5509,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5525,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5540,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5592,13 +5594,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643586</v>
@@ -5647,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5674,49 +5676,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980059</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
-        <v>1440.685527502827</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>1186.00103929694</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>896.5838692599799</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>668.5943183619626</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,28 +5737,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5768,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5786,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5838,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5847,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>882.7763375151577</v>
+        <v>3575.247216461483</v>
       </c>
       <c r="C22" t="n">
-        <v>713.8401545872508</v>
+        <v>3575.247216461483</v>
       </c>
       <c r="D22" t="n">
-        <v>563.7235151749151</v>
+        <v>3575.247216461483</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>3575.247216461483</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>3575.247216461483</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T22" t="n">
-        <v>1285.217381488927</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U22" t="n">
-        <v>1285.217381488927</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="V22" t="n">
-        <v>1285.217381488927</v>
+        <v>4495.094981370231</v>
       </c>
       <c r="W22" t="n">
-        <v>1285.217381488927</v>
+        <v>4205.67781133327</v>
       </c>
       <c r="X22" t="n">
-        <v>1285.217381488927</v>
+        <v>3977.688260435253</v>
       </c>
       <c r="Y22" t="n">
-        <v>1064.424802345397</v>
+        <v>3756.895681291723</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>988.9950526279305</v>
+        <v>324.384017443268</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632137</v>
+        <v>324.384017443268</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.787631771461</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.787631771461</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y25" t="n">
-        <v>988.9950526279305</v>
+        <v>506.0324822735078</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6205,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6306,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4119.348874704331</v>
+        <v>579.068505649155</v>
       </c>
       <c r="C28" t="n">
-        <v>4119.348874704331</v>
+        <v>410.1323227212481</v>
       </c>
       <c r="D28" t="n">
-        <v>4119.348874704331</v>
+        <v>260.0156833089123</v>
       </c>
       <c r="E28" t="n">
-        <v>3971.435781121938</v>
+        <v>260.0156833089123</v>
       </c>
       <c r="F28" t="n">
-        <v>3824.545833624028</v>
+        <v>260.0156833089123</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746785</v>
+        <v>260.0156833089123</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W28" t="n">
-        <v>4749.779469576118</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X28" t="n">
-        <v>4521.789918678101</v>
+        <v>981.5095496229249</v>
       </c>
       <c r="Y28" t="n">
-        <v>4300.997339534571</v>
+        <v>760.7169704793947</v>
       </c>
     </row>
     <row r="29">
@@ -6443,22 +6445,22 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
@@ -6482,7 +6484,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6546,19 +6548,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>773.166147484815</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>604.2299645569082</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>454.1133251445724</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>306.2002315621793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>159.3102840642689</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6649,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>954.8146123150548</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>954.8146123150548</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>954.8146123150548</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6691,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>868.4856756861153</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C34" t="n">
-        <v>868.4856756861153</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D34" t="n">
-        <v>718.3690362737796</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E34" t="n">
-        <v>570.4559426913864</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F34" t="n">
-        <v>423.5659951934761</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>255.3906735132967</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>104.97266506124</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1497.167109508922</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1297.247099424474</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1297.247099424474</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1008.118460638033</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>1008.118460638033</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.916270557902</v>
+        <v>1008.118460638033</v>
       </c>
       <c r="X34" t="n">
-        <v>1270.926719659885</v>
+        <v>780.1289097400152</v>
       </c>
       <c r="Y34" t="n">
-        <v>1050.134140516355</v>
+        <v>559.336330596485</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6971,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1646.274692278279</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2315.738453580939</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1301.686365917924</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1301.686365917924</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>1301.686365917924</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>1047.001877712037</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>1047.001877712037</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>819.0123268140193</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>598.2197476704891</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7153,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7172,10 +7174,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7190,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7205,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>266.1532743881928</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>4684.346427836639</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>4460.561012626144</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>4171.432373839702</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324571</v>
+        <v>3916.747885633816</v>
       </c>
       <c r="W40" t="n">
-        <v>266.1532743881928</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="X40" t="n">
-        <v>266.1532743881928</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="Y40" t="n">
-        <v>266.1532743881928</v>
+        <v>3627.330715596855</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7415,7 +7417,7 @@
         <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4555.115143601278</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.8632439327646</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C43" t="n">
-        <v>565.9270610048577</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7600,19 +7602,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1278.964902175612</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1024.280413969725</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>734.8632439327646</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>734.8632439327646</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>734.8632439327646</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7630,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7667,7 +7669,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>294.1440025502359</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C46" t="n">
-        <v>125.207819622329</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>125.207819622329</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>125.207819622329</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>125.207819622329</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>125.207819622329</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7834,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1327.373122315499</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>1038.244483529058</v>
       </c>
       <c r="V46" t="n">
-        <v>986.0022165609664</v>
+        <v>783.5599953231707</v>
       </c>
       <c r="W46" t="n">
-        <v>696.5850465240057</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X46" t="n">
-        <v>696.5850465240057</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y46" t="n">
-        <v>475.7924673804756</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.421860962789</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8547,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8772,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9419,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,16 +10676,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>15.83804904622903</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11063,10 +11065,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208058</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>124.5670006750239</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>96.29904972659759</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23653,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,22 +23706,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>154.0027448235965</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>90.9670373936882</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23938,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>79.4309254770961</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>228.5889167740531</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>51.56266414401712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>9.985660880104064</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>150.6837655255582</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>90.21378475843761</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,16 +24420,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>64.09010698490719</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>98.16246790166788</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>105.0213077854343</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24889,10 +24891,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>102.7412275993274</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>108.2326829653023</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25327,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25360,19 +25362,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>2.663204390024333</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>103.0576765518773</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>23.1777462577266</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.8953512967693</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25840,7 +25842,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>68.48549770011007</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>121.2030074871134</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26074,22 +26076,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>51.71984429841024</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>895908.6212501179</v>
+        <v>895908.621250118</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>895908.6212501179</v>
+        <v>895908.6212501178</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>895908.6212501179</v>
+        <v>895908.6212501178</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>895908.6212501179</v>
+        <v>895908.621250118</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>895908.621250118</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>895908.621250118</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>895908.6212501179</v>
+        <v>895908.6212501178</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>895908.6212501178</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="H2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="I2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="J2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="L2" t="n">
         <v>508337.7776590216</v>
@@ -26347,10 +26349,10 @@
         <v>508337.7776590216</v>
       </c>
       <c r="N2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="O2" t="n">
         <v>508337.7776590216</v>
-      </c>
-      <c r="O2" t="n">
-        <v>508337.7776590217</v>
       </c>
       <c r="P2" t="n">
         <v>508337.7776590216</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26427,37 +26429,37 @@
         <v>36432.48351773395</v>
       </c>
       <c r="F4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="G4" t="n">
         <v>36432.48351773396</v>
       </c>
-      <c r="G4" t="n">
-        <v>36432.48351773395</v>
-      </c>
       <c r="H4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="K4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="L4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="M4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="N4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="P4" t="n">
         <v>36432.48351773395</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36432.48351773396</v>
-      </c>
-      <c r="O4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="P4" t="n">
-        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26485,13 +26487,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-322498.4937232976</v>
+        <v>-322498.4937232975</v>
       </c>
       <c r="C6" t="n">
-        <v>267469.3854912473</v>
+        <v>267469.3854912466</v>
       </c>
       <c r="D6" t="n">
-        <v>267469.3854912468</v>
+        <v>267469.3854912472</v>
       </c>
       <c r="E6" t="n">
-        <v>-145242.0682843252</v>
+        <v>-145242.068284325</v>
       </c>
       <c r="F6" t="n">
+        <v>379917.9681925712</v>
+      </c>
+      <c r="G6" t="n">
+        <v>379917.9681925713</v>
+      </c>
+      <c r="H6" t="n">
+        <v>379917.9681925708</v>
+      </c>
+      <c r="I6" t="n">
+        <v>379917.9681925711</v>
+      </c>
+      <c r="J6" t="n">
+        <v>203494.748999978</v>
+      </c>
+      <c r="K6" t="n">
+        <v>379917.9681925712</v>
+      </c>
+      <c r="L6" t="n">
         <v>379917.968192571</v>
       </c>
-      <c r="G6" t="n">
-        <v>379917.9681925711</v>
-      </c>
-      <c r="H6" t="n">
-        <v>379917.9681925711</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
+        <v>245116.9529587339</v>
+      </c>
+      <c r="N6" t="n">
         <v>379917.968192571</v>
-      </c>
-      <c r="J6" t="n">
-        <v>203494.7489999782</v>
-      </c>
-      <c r="K6" t="n">
-        <v>379917.9681925713</v>
-      </c>
-      <c r="L6" t="n">
-        <v>379917.9681925711</v>
-      </c>
-      <c r="M6" t="n">
-        <v>245116.9529587338</v>
-      </c>
-      <c r="N6" t="n">
-        <v>379917.9681925711</v>
       </c>
       <c r="O6" t="n">
         <v>379917.9681925711</v>
       </c>
       <c r="P6" t="n">
-        <v>379917.9681925711</v>
+        <v>379917.968192571</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26750,16 +26752,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>228.5568760453098</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>77.29405031273922</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>191.9531358280112</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>19.35788648750767</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>172.622998665998</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>27.98162540605443</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57.43284363910232</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27828,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>231.821082683639</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.15431730566984</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,13 +27909,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>109.6868997127721</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>89.03126756219001</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>97.15021098477477</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28564,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28758,7 +28760,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32233,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32318,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32327,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32342,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,10 +35266,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,7 +35494,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35504,7 +35506,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,19 +36050,19 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515205983</v>
       </c>
       <c r="P19" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36139,10 +36141,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36926,10 +36928,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37163,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37394,16 +37396,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>222.9314639777537</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37561,7 +37563,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37783,10 +37785,10 @@
         <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37874,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1838621.012125765</v>
+        <v>1831603.997234054</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10508212.95563509</v>
+        <v>10508212.9556351</v>
       </c>
     </row>
     <row r="11">
@@ -667,13 +667,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>359.9927133828765</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>308.9438883433144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>94.32873841396652</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>353.9487446662073</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>277.6762266989929</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>41.03250833502987</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>54.46079155833878</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>239.554069004641</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="D10" t="n">
-        <v>59.58420545602234</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>41.92656778835364</v>
+        <v>56.94674408514295</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>67.54481623479278</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>118.4898845065072</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>114.9309043193605</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>58.40168825977475</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>271.7818641996879</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>50.75136046586825</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>119.8716683503992</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.731669438490537</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>195.2576055935789</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3678,10 +3678,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>174.7430637258767</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>145.8998232290783</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3799,7 +3799,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>169.827716759979</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1780.41262192169</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>577.9834619915252</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>577.9834619915252</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>571.0379612423218</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2092.477155601806</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1780.41262192169</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,13 +4415,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
         <v>348.7460229006679</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>603.4305111065548</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2079.343073798764</v>
+        <v>1099.346874905661</v>
       </c>
       <c r="C5" t="n">
-        <v>2079.343073798764</v>
+        <v>1099.346874905661</v>
       </c>
       <c r="D5" t="n">
-        <v>1721.077375192013</v>
+        <v>741.081176298911</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>355.2929237006668</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>348.3474229514633</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>334.4240188900542</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4600,19 +4600,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y5" t="n">
-        <v>2465.942913862886</v>
+        <v>1485.946714969783</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4664,25 +4664,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>411.2797076961342</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>264.3897601982238</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>95.38995993655624</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>95.38995993655624</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>95.38995993655624</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>643.7011644960776</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>389.0166762901907</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.087414675782</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1596.687254739904</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1596.687254739904</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1596.687254739904</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>444.0275768541693</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>444.0275768541693</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>383.841510736975</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541693</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>444.0275768541693</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>444.0275768541693</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>444.0275768541693</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5023,43 +5023,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5123,25 +5123,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115524</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.4856756861153</v>
+        <v>471.5883316929525</v>
       </c>
       <c r="C13" t="n">
-        <v>699.5494927582084</v>
+        <v>302.6521487650456</v>
       </c>
       <c r="D13" t="n">
-        <v>549.4328533458727</v>
+        <v>302.6521487650456</v>
       </c>
       <c r="E13" t="n">
-        <v>401.5197597634796</v>
+        <v>154.7390551826525</v>
       </c>
       <c r="F13" t="n">
-        <v>401.5197597634796</v>
+        <v>154.7390551826525</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5232,19 +5232,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X13" t="n">
-        <v>1270.926719659885</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.134140516355</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5299,7 +5299,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5375,10 +5375,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1430.689183452051</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1141.560544665609</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>886.8760564597223</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>597.4588864227617</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>597.4588864227617</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>597.4588864227617</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5497,25 +5497,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5533,31 +5533,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,13 +5594,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643586</v>
@@ -5676,46 +5676,46 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980059</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1379.229518531123</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,34 +5737,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3575.247216461483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3575.247216461483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3575.247216461483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3575.247216461483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3575.247216461483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>4749.779469576118</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>4495.094981370231</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>4205.67781133327</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X22" t="n">
-        <v>3977.688260435253</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y22" t="n">
-        <v>3756.895681291723</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805471</v>
@@ -5986,55 +5986,55 @@
         <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>324.384017443268</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>324.384017443268</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557903</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352016</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W25" t="n">
-        <v>954.8146123150552</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>726.8250614170379</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.0324822735078</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6214,25 +6214,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6241,22 +6241,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6308,16 +6308,16 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M27" t="n">
         <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059517</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
         <v>2123.441607278215</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>579.068505649155</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>410.1323227212481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>260.0156833089123</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>260.0156833089123</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>260.0156833089123</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>260.0156833089123</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557903</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>981.5095496229249</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>760.7169704793947</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,40 +6442,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6484,7 +6484,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6548,19 +6548,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>1090.100879744681</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>850.2141304319072</v>
       </c>
     </row>
     <row r="32">
@@ -6679,40 +6679,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1497.167109508922</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1297.247099424474</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1297.247099424474</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1008.118460638033</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1008.118460638033</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>1008.118460638033</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>780.1289097400152</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>559.336330596485</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1301.686365917924</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1301.686365917924</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1301.686365917924</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V37" t="n">
-        <v>1047.001877712037</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W37" t="n">
-        <v>1047.001877712037</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X37" t="n">
-        <v>819.0123268140193</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>598.2197476704891</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3627.330715596855</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C40" t="n">
-        <v>3627.330715596855</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D40" t="n">
-        <v>3627.330715596855</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E40" t="n">
-        <v>3627.330715596855</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F40" t="n">
-        <v>3627.330715596855</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916676</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>4684.346427836639</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>4460.561012626144</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>4171.432373839702</v>
+        <v>816.762183007535</v>
       </c>
       <c r="V40" t="n">
-        <v>3916.747885633816</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W40" t="n">
-        <v>3627.330715596855</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X40" t="n">
-        <v>3627.330715596855</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y40" t="n">
-        <v>3627.330715596855</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7405,16 +7405,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150548</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1327.373122315499</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1038.244483529058</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>783.5599953231707</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>494.1428252862101</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8771,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>223.6742649934481</v>
       </c>
       <c r="L12" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776746</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>124.5670006750239</v>
+        <v>109.5468243782346</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>154.0027448235965</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>79.4309254770961</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>51.56266414401712</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24183,7 +24183,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>90.21378475843761</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,19 +24414,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>14.45548819888944</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>98.16246790166788</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>59.96031183153808</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,19 +24888,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>108.2326829653023</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,19 +25362,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>2.663204390024333</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>23.1777462577266</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>140.3375291694991</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>90.96703739368829</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>51.71984429841024</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>895908.6212501178</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>895908.6212501178</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>895908.621250118</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>895908.621250118</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>895908.6212501178</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="14">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117846</v>
+        <v>533677.1504117848</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="H2" t="n">
         <v>508337.7776590216</v>
@@ -26340,22 +26340,22 @@
         <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="L2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590214</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="G4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="M4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26487,13 +26487,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-322498.4937232975</v>
+        <v>-322498.4937232977</v>
       </c>
       <c r="C6" t="n">
-        <v>267469.3854912466</v>
+        <v>267469.3854912468</v>
       </c>
       <c r="D6" t="n">
-        <v>267469.3854912472</v>
+        <v>267469.3854912474</v>
       </c>
       <c r="E6" t="n">
-        <v>-145242.068284325</v>
+        <v>-146216.6595440468</v>
       </c>
       <c r="F6" t="n">
-        <v>379917.9681925712</v>
+        <v>378943.3769328494</v>
       </c>
       <c r="G6" t="n">
-        <v>379917.9681925713</v>
+        <v>378943.3769328494</v>
       </c>
       <c r="H6" t="n">
-        <v>379917.9681925708</v>
+        <v>378943.3769328494</v>
       </c>
       <c r="I6" t="n">
-        <v>379917.9681925711</v>
+        <v>378943.3769328493</v>
       </c>
       <c r="J6" t="n">
-        <v>203494.748999978</v>
+        <v>202520.1577402564</v>
       </c>
       <c r="K6" t="n">
-        <v>379917.9681925712</v>
+        <v>378943.3769328495</v>
       </c>
       <c r="L6" t="n">
-        <v>379917.968192571</v>
+        <v>378943.3769328494</v>
       </c>
       <c r="M6" t="n">
-        <v>245116.9529587339</v>
+        <v>244142.3616990123</v>
       </c>
       <c r="N6" t="n">
-        <v>379917.968192571</v>
+        <v>378943.3769328494</v>
       </c>
       <c r="O6" t="n">
-        <v>379917.9681925711</v>
+        <v>378943.3769328492</v>
       </c>
       <c r="P6" t="n">
-        <v>379917.968192571</v>
+        <v>378943.3769328492</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26752,16 +26752,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>53.79145663791849</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>77.29405031273922</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,10 +27593,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>191.9531358280112</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>27.98162540605443</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>46.24654606536427</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>4.167450853507134</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>231.821082683639</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>109.6868997127721</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="D10" t="n">
-        <v>89.03126756219001</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28760,7 +28760,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32320,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
         <v>528.689756130333</v>
@@ -35491,10 +35491,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>374.2497035813873</v>
       </c>
       <c r="L12" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35506,13 +35506,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,19 +36050,19 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515205983</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.666887533699</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36916,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>429.2814066296117</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36928,10 +36928,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37387,7 +37387,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1831603.997234054</v>
+        <v>1836543.260083085</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>359.9927133828765</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67.87096028541178</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>99.90187484148903</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>277.6762266989929</v>
+        <v>277.6762266989933</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.4638972269085</v>
       </c>
       <c r="J7" t="n">
-        <v>41.03250833502987</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>13.62152856464951</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2557485598865</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>14.46389722690833</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1530,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>56.94674408514295</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>29.32201570294595</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>163.8946345805325</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="23">
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>100.4879364842347</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>271.7818641996879</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>27.37255160319397</v>
       </c>
     </row>
     <row r="29">
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>119.8716683503992</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>21.83881304669672</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>190.6405752120378</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>145.8998232290783</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3954,7 +3954,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>577.9834619915252</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="E2" t="n">
-        <v>577.9834619915252</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="F2" t="n">
-        <v>571.0379612423218</v>
+        <v>540.4633154629976</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>122.4995073611844</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4372,10 +4372,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1099.346874905661</v>
+        <v>1099.346874905662</v>
       </c>
       <c r="C5" t="n">
-        <v>1099.346874905661</v>
+        <v>1099.346874905662</v>
       </c>
       <c r="D5" t="n">
-        <v>741.081176298911</v>
+        <v>741.0811762989115</v>
       </c>
       <c r="E5" t="n">
-        <v>355.2929237006668</v>
+        <v>355.2929237006672</v>
       </c>
       <c r="F5" t="n">
-        <v>348.3474229514633</v>
+        <v>348.3474229514638</v>
       </c>
       <c r="G5" t="n">
-        <v>334.4240188900542</v>
+        <v>334.4240188900547</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4600,19 +4600,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W5" t="n">
         <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>1485.946714969783</v>
+        <v>1485.946714969784</v>
       </c>
       <c r="Y5" t="n">
-        <v>1485.946714969783</v>
+        <v>1485.946714969784</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>559.1928012785273</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E7" t="n">
-        <v>411.2797076961342</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F7" t="n">
-        <v>264.3897601982238</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G7" t="n">
-        <v>95.38995993655624</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H7" t="n">
-        <v>95.38995993655624</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="I7" t="n">
-        <v>95.38995993655624</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>966.3266056533573</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4883,19 +4883,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
         <v>713.5189870075369</v>
@@ -4953,13 +4953,13 @@
         <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>634.0455001582217</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>471.5883316929525</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C13" t="n">
-        <v>302.6521487650456</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D13" t="n">
-        <v>302.6521487650456</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>154.7390551826525</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>154.7390551826525</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1469.298072878159</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1245.512657667665</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>956.3840188812231</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>701.6995306753363</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617344999</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="X13" t="n">
-        <v>692.3809108364826</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="Y13" t="n">
-        <v>471.5883316929525</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
     <row r="14">
@@ -5260,34 +5260,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,10 +5296,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5466,22 +5466,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>560.7969603949465</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5503,22 +5503,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5539,7 +5539,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5600,16 +5600,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5746,16 +5746,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,34 +5764,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286132</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>437.6964226305959</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5998,19 +5998,19 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028587</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>800.6837097077201</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>545.9992215018333</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,10 +6214,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6238,16 +6238,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6311,16 +6311,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="29">
@@ -6463,7 +6463,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514085</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>729.1316371486756</v>
+        <v>754.4177361809765</v>
       </c>
       <c r="C31" t="n">
-        <v>560.1954542207687</v>
+        <v>585.4815532530696</v>
       </c>
       <c r="D31" t="n">
-        <v>560.1954542207687</v>
+        <v>435.3649138407338</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>287.4518202583407</v>
       </c>
       <c r="F31" t="n">
         <v>265.3924131404652</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U31" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V31" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W31" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X31" t="n">
-        <v>1071.006709575437</v>
+        <v>936.0662010112162</v>
       </c>
       <c r="Y31" t="n">
-        <v>850.2141304319072</v>
+        <v>936.0662010112162</v>
       </c>
     </row>
     <row r="32">
@@ -6679,40 +6679,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6934,7 +6934,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
@@ -6946,22 +6946,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7128,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1271.749344574921</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1017.064856369034</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>727.647686332073</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>499.6581354340557</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>245.1301850426789</v>
       </c>
     </row>
     <row r="38">
@@ -7156,43 +7156,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>816.762183007535</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>816.762183007535</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>527.3450129705744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,46 +7390,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7593,22 +7593,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
         <v>97.21709146028584</v>
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,13 +7660,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>223.6742649934481</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K29" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23418,19 +23418,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>109.5468243782346</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>168.5987942806573</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>15.93734560140481</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>61.34209567542518</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24180,7 +24180,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="23">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>79.34404369770259</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>14.45548819888944</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>191.2121017489008</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>59.96031183153808</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>123.5822349762345</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25368,7 +25368,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>27.94407814005703</v>
       </c>
     </row>
     <row r="38">
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>140.3375291694991</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>895908.621250118</v>
+        <v>895908.6212501179</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>895908.6212501179</v>
+        <v>895908.6212501178</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>895908.6212501179</v>
+        <v>895908.621250118</v>
       </c>
     </row>
     <row r="12">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117848</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="G2" t="n">
         <v>508337.7776590216</v>
@@ -26334,13 +26334,13 @@
         <v>508337.7776590216</v>
       </c>
       <c r="I2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="J2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="L2" t="n">
         <v>508337.7776590216</v>
@@ -26349,13 +26349,13 @@
         <v>508337.7776590217</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590216</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
@@ -26435,7 +26435,7 @@
         <v>36432.48351773396</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773397</v>
       </c>
       <c r="I4" t="n">
         <v>36432.48351773396</v>
@@ -26450,13 +26450,13 @@
         <v>36432.48351773396</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="N4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="P4" t="n">
         <v>36432.48351773396</v>
@@ -26472,7 +26472,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26484,10 +26484,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26502,7 +26502,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-322498.4937232977</v>
+        <v>-322498.4937232978</v>
       </c>
       <c r="C6" t="n">
-        <v>267469.3854912468</v>
+        <v>267469.3854912473</v>
       </c>
       <c r="D6" t="n">
-        <v>267469.3854912474</v>
+        <v>267469.3854912466</v>
       </c>
       <c r="E6" t="n">
-        <v>-146216.6595440468</v>
+        <v>-145339.5274102971</v>
       </c>
       <c r="F6" t="n">
-        <v>378943.3769328494</v>
+        <v>379820.509066599</v>
       </c>
       <c r="G6" t="n">
-        <v>378943.3769328494</v>
+        <v>379820.5090665988</v>
       </c>
       <c r="H6" t="n">
-        <v>378943.3769328494</v>
+        <v>379820.5090665988</v>
       </c>
       <c r="I6" t="n">
-        <v>378943.3769328493</v>
+        <v>379820.5090665987</v>
       </c>
       <c r="J6" t="n">
-        <v>202520.1577402564</v>
+        <v>203397.289874006</v>
       </c>
       <c r="K6" t="n">
-        <v>378943.3769328495</v>
+        <v>379820.5090665989</v>
       </c>
       <c r="L6" t="n">
-        <v>378943.3769328494</v>
+        <v>379820.5090665989</v>
       </c>
       <c r="M6" t="n">
-        <v>244142.3616990123</v>
+        <v>245019.4938327619</v>
       </c>
       <c r="N6" t="n">
-        <v>378943.3769328494</v>
+        <v>379820.5090665989</v>
       </c>
       <c r="O6" t="n">
-        <v>378943.3769328492</v>
+        <v>379820.5090665989</v>
       </c>
       <c r="P6" t="n">
-        <v>378943.3769328492</v>
+        <v>379820.5090665989</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>53.79145663791849</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>256.0518124789454</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27590,13 +27590,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>125.1332306165952</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>46.24654606536427</v>
+        <v>46.24654606536387</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>120.5017245654297</v>
       </c>
       <c r="J7" t="n">
-        <v>4.167450853507134</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>393.2545171770619</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858258</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>152.7829238717195</v>
+        <v>152.7829238717193</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.689756130333</v>
@@ -35491,7 +35491,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>374.2497035813873</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
@@ -35506,13 +35506,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36129,7 +36129,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37387,7 +37387,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
